--- a/Testdata/TC_21.xlsx
+++ b/Testdata/TC_21.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyN0lJVsWRhvwJoUoKQokVVl5KYa7I3Hq5S6zMyuJbynQIkWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUrFUNwdo55zszZ86c24zQu1dz37ggEaNhsFexa1bFIIEbejQ436vE/KxqP6i866DulUv8IxzhOeEANkAqYLtXjO5VZpwvdk3z8vKydtmohdG5Wbcs23w86I/dGZnjKg0Yx4FLKqmU93apioPa3nxAOPYwx0pyr9Ib92ptQt0O0AY4wOckqrViRgPCWDfglFPChGREMCftzuC7amNOvfagZiNzjZ4hWzH1PYUrIBVd42BZMqFz4tQte6dq7VQb1sS2d7e3dhs7tYdb1vuJYApEfcz4mEQX1JWEMcfzhRS3dhqWbW9vNXaQuREEc2UGcNDQ90bkgjLitYnvs1IWMfUBNl0Ouy5nTAuZOVk90f1VOIjwYjah3Cfl1BgNWsY80LpkkzhoP4yIC/a7l0qH5HIYabNOFn3gTmY04ssOXpae65iRaLgQRion6qBOGPCmTyJ+vICzJh64AjAcHsUEmbcwM6EOZS580yAmnnOGfZYXKjDRSRg9YQvskkOIY1PMcRn4IfbA4ThlnLrZomsMdBSFC5gRFm+FvrcPs2rwBkY6cy8AE4tlW2H4JNNuExPJU5XnC2c6xzyBr9HReBZeDgN/OY6nzI3olHidVoLeyEMiILV0O2Y8nIMWGQkpWo7ied47g8HAgF9L+AexuIpAHeLSOfaPfLAncxowYYGAmjEPzyhvh348D1ii3goVncDmJuQq3Ww6RkM450DYPwx6QYJXFt/IKgqMwst0zXWGtEeO3GRucvLrjFVwB2jJSa5z5OGIXe5TH0pF/lhy1KKDjGeE8I3eoThIZMV9UXyc1vIwnk8h0qYQbhdyVYbMjI/AZcHtQS/HgoJSlT8Ty9qVP6BHykbdwLsdlzARLJdby7GBt0JCsCe/5ePgCVBPKJ8dNpO9bOAgZYFb8es8BEG88PFSklMr5WmoF7h+7BGVG3rBmXRRoZs61FvZaI3Uh3B3EA6Wk+UCUjSjuxw+9ipQtHcZj6AtqDhuGAc8WookgkwNfZsMi6eBXAD7d5Y5i8gHMXQjy/04cNuhd/fVPGWd44Dyu2sYxpHKjHcXkdYTSTJmHSLSjcz/d5Z3y+yJRaXg84DMw4C6d7c2GFlo791jIyyJqjtLEBVfd8b7UOJVBRSxfmexCFpJqHmllmkyFrpUOqsODy8nb94SMh1yhmMf2jgO1fY8zb2rZNRkT1YxeRI6jvwkAzqiSWbQJbvevOZCHyE6wZobzgXBhOb0ZIzMPF40Qy7pBud9HJzH0G6keWWVnuZfUSonEQ6Y2E7aXayk4s0glOQp1fU4KnkNY+kIKnmFwEXmCg5NyHwRRtgfgGHovnY73TpBVzLAfKZHUNt84iZGNjPRVKqoWaL422CySKltiIDXaXKFKEFiL6ofzzAZDYldDiAs/Tb26TRSWTUp5Zt4cGBZn5jkX7G5kj1jcgZwJ4Pq+x2yFI16NtB06bJ2wlAOLBKpMx5t7dS3rUYdOhsxRnLHI4J9owvBzInRCy4I43MQ2zVGhFEPvij2d433yJRQKILSRLoMlZbOy6H9JM9LVZqgb5FSBEC/cU6hjKwDU04m4JwSHPnLHFBttR+6gLv58b+vf/P81YvPbz5++ubLH/73H7969c+fXT/7EXzc/PVv15/8Um1TgdEET30iFZq0dnasxhb4WUpCwrim7JK92OWSdnoqm+N0jPQdTw7a3V77oN+S+SQlJuKqpJji+rgM42w4VpuQC8kjNRNPUBBnkuQnPS5wcyXKEde5C1JE5/m3CSpbvH75+euXf75VWhss67XsR4+2q3b9ra0YXIztNVzaivULNUCAt6rWdrVez4FXMGikCkBqp57nNGzrkVWH23eay73UkTeBVll6pgk+N1fkFKmt2qPUBfLjhCkdfwIhkrJVKOQG2kW//MmbvzwtoLR1NaU4Cygn2xixmJkM5NSHo4kxHh6P2l1j0h0LP8l4OZya/BvAevU0ngpOFQQx9t8xoLhDMTMqcCOqGOGZQbA7M5YQibk4LDjbJqpa6J5Trmp5EIXxQp1ITiCjbkCm2WSjxIZcI3nSnmtJJ2NtgCtdr//+xSYBvZFO1tCmTyF5GipwFCnH11H72b9effXRqxcvbp7//PqrHxRm0OukLwTg5xBN+WHq9pDydL1ZoaCTsTTmE+t7ufqiieIidRTSgDPHfiDvUHqEQNQWs8nfqDeHkicnlvYC+goFvYdZ94rrwHYOkVkkgJ4LDNU2zO6eKUHl8Myu//nt725+/cXNp8/ffPSn64//eP3Jp69f/v7Nsz+oqLt5+vzmp890ll8tBFIXcaNVTaAhn0pcQ0SjIWq38fWHvzCCkBvQchixzEhff/hZbjKhqGxOspmhpUsVKaqwBs0LCzkjp0qqQ0EuFVENQFuUsEaK0EUsXFA3W+T9qphKxJ1kfKs3qcaMGCF0U9+GnRTBmfBd5bSIKqlHD626XddcpY3YwhSznOkP/HAKTUbCkA8QK5CC1DcLZFi53kF/2Gr2M4hSYhh5JBJuqD5Q0lKKktJjyShxtRwFuND4ubEv3ozWYOusdOZcGjP148tZ0xPpb/NTRQGB2nEUqYYo0M/643gBzXDyWnc7X75g5vrfQ9Wr5jvibNzrFPkwznGhEBbZgiD5MjVplkpTPSbeeVQ7eyhMkw2BV3j1BHPol3vVaV1AXxmZIu90oyiMNiafjJPABtBJQ0YxM4unGHmmquv2srNKCEnCSz/UzU/vMOwQn/Byz9pmJj0IL+4tC2dfVrTHhr6njVnu6pGaJZsg/7YvHOX/fdpXztaMImisxANg6bf45OI6gvtuSW3UVqSguAHC6vqxfJ9GjD8WmUB/KcppSjlVHepjceFSH3J86jS2FQEAZn52s6BmErpc/YUl9Pt0TkteC60kvouTgC0XC9XC9cp5iigth+QKGszcDJAUp9+HsqHeUcrMphwWcmkqL94uGT2f8bKKPZxi4pGpVXWnpF7d8qyd6iNCGlXbhv+xW69b1rZ4+dSTQ+ag5LLkImZyYNlfPp3/ASPMfXEyHQAA</t>
+          <t>Kx8AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCoe5ByRaF9QV8SSFKSoJIV1a+FMu7pbTV8Y653ZPEbynQIkWaoigKp0if6KcUBeoabQKkdh//S2DJ7qf+C5193IukYp1qC9DtzPxmZ2dnZ2ZX6N2rWWBckJjRKHxUszesmkFCL/JpePqolvBp3X5Qe9dFvSuPBIc4xjPCQdgAVMh2rhh9VDvjfL5jmpeXlxuXjY0oPjUdy7LNJ8PByDsjM1ynIeM49EgtQ/lvR9Vc1PFnQ8KxjzlWyEe1/qi/0SHU6wJtiEN8SuKNdsJoSBjrhZxySphAxgRz0ukOv6sW5jobDzZsZK7Qc8l2QgNfyZUkFV3LwbRkTGfEdSzHqlvbdWdzbDs74qe5YTea76fATBANMOMjEl9QTxJGHM/mEm5tO5u2A/+byFwrBLpyB7joIPCPyAVlxO+QIGCVPGLqDWx5HFZdzZkWMgtYrej+JuzFeH42pjwgVeG7UUw8cNS95t4nlwex9t94PgDu+IzGfNHFi8q6HjMSH8yFN6pBXdSNQt4KSMwfz2FTiQ97DgyXxwlB5i3MHNSlzINvGibEd6c4YEVQiYmOo/iczbFH9uHAmkLHZRhE2IfI4pRx6uWTrjDQYRzNQSNM3o4Cfxe0auE1jExzPwQXi2nbUXSeW7eOiWQMyGiAPZ1hnoqv0NHoLLo8CIPFKJkwL6YT4nfbqfRaHhInT6M7CePRDKzISUjRChTf998ZDocG/FrAPzh0yxKoSzw6w8FhAP5kbgMUlgiolfBoSnknCpJZyFLzlqjoGBY3JlfZYrMxOoB9DoX/o7AfpvLK42tZZcBRdJnNucqQ/iiQW8xLd36VsSzcBVq6k6scuTlilbs0gJpQ3JYCtRwgozNC+NroUBwk0t+uqDJue7GfzCZw0iZw3C7krAyZOR9ByELYg12uBZWjLn/GlrUjf8COjI16oX+7XMpEMF1hLtcG3hIJwZqCdoDDc6AeU36230rXsoaDlAdulV/lITjE8wAvJDnzUpGG+qEXJD5RuaEfTmWICtvUpt7KRiukARx3F+FwMV7MIRczusPh41ENqvMO4zHU/5rrRUnI44VIIsjUom/DsGQSyglwcGfMNCYfJNB2LHaT0OtE/t1n85V3HoeU393CKIlVZrw7RHpPJMmEdYlINzL/3xnvVVkTiyuJz0Iyi0Lq3d3b4GRhvX+PhbD0VN0ZQdT5urN8ACVeVUBx1u8Mi6FnhJpXaZoWY5FHZbDq4+EX8OYtR6ZLpjgJoF/jUG1Ps9y7TEYtdr4sUyShx3GQZkBXdMMM2mHPn2140EeIlm/Di2aCYEIXejxCZlFeNEMe6YWnAxyeJtBuZHllmZ7lX1EqxzEOmVhO1l0speL1QijNU6rrcVXyOkhkIKjkFQEXmUtyaExm8yjGwRAcQ3d12OnWCbqSIeZnegS1LSBe6mQzh2aosmWp4W8Tk0VKLUMceJ0ml4hSSKxFNd65TE5DYpVDOJZBBwd0EqusmpbydTzYsLxPTPOvWFzFnjHdA7h8QfX9DlmIjjwfaLoMWTtlqAAWidQdHW1uO1tWw4HORoyRXPERwYHRg8PMidEPLwjjM4DtGEeEUR++KA52jPfIhFAogtJFugxVRhdxaDfN89KUFthbppQFoN84pVBGVgUzTg5wTwiOg0VBUC11EHkgd/Pjf1//5vmrF5/ffPz0zZc//O8/fvXqnz+7fvYj+Lj569+uP/mlWqYSRmM8CYg0aNze3rYamxBnGQkJ55qyS/YTj0vayYlsjrMx0pc5Oej0+p29QVvmk4yYwlVJMcU9cREl+XCkFiEnkltqppGgRNxxmp/0uMQtlChX3NsuSFm6yL8NqHzx+uXnr1/++Va0dljea9nN5lbddt7aijmWba/IZa3YoFQDhPBm3dqqO05BeEkGHakCkPmp77sN22paTsOys1zuZ4G8TmiZpTWN8am5hFOkjmqPshAojlOmDPwxHJGMrY5CYaBD9MufvPnL05KU9q6mlLWAcbKNEZOZ6UCq3j8aG6ODx0ednjHujUSc5LyCnFL+DcJ69uw8lYIqDBMcvGNAcYdiZtTgRlQzoqlBsHdmLOAkFs5hKdjWUdVE91S5bOVeHCVztSMFQE5dI5llk7WINblG8qQ/V5JOzlojrmy9/vsX6wB6Id28oXWPhm1jFmZxKWmoxFGkAl+f2s/+9eqrj169eHHz/OfXX/2gpEHPk70QQJzDaSoOs7CHlKfrzRIFHY+kM8+t7xXqiyaKi9RhREPOXPuBvEPpEQKoLbTJ36g/g5InFUt/AX2Jgt7DrHfF9cF295FZJoCdcwzVNsrvnhlB5fDcr//57e9ufv3FzafP33z0p+uP/3j9yaevX/7+zbM/qFN38/T5zU+f6Sy/XAikLeJGq5pAQz6VeIY4jYao3cbXH/7CCCNuQMthJDIjff3hZwVlwlDZnOSaoaXLDCmbsCJaBAucUTAls6GEyyCqAeiIEtbIJHQRi+bUyyd5vy5UiXMnGd/qj+sJI0YE3dS3YSVl4Rx8V5yGqJJ6+NBybEdzlTViCRPMCq7fC6IJNBkpQz5ALImUUN8MyGXlfHuDg3ZrkIsoIw5in8QiDNUH6rO0qUzDq0ABLjR7XhKId6IVsVUWSr8KqcvUDy7Tli9S3vrniZIE6iRxrJqgUL/Zj5I5NMDpC93tfPlqWeh591V/WuyC83G/W+bDuMCF4ldmC4Lky3SkWSo19Zl421Et7L5wTT4EXumlE9yhn+VVd3UBvWRsilzTi+MoXptwck4qNoTuGbKImXs8kzHFlKrT9vO9Sglpkss+1G1PrzDqkoDwym/WKXoYXdwbC3tfFdpnB4GvnVntupG5JVdQfLgXgVLVmFYcQ9sknvcqv7QPaHjer7Z618ab9kPs2diekubWpPnAhnxDPPxw+6HlOVCQlFJx+xQqxM1F3N0qToLMMjy/Zx/BzbuiNuVgCRR3UfCUPJA6sWdjtEtjxp+IFKW/FOUko5yo1vmJsE99yPGJ29hSBBAwi5OZJavT/MLV33iiYEBntOJ91UqTUFkJhMF8rnrLqhsKNW+fXEHnW9AA2Xryfahn6oGnijZ1qiDJZ/hU1yiZVFZnpuBD4IvAuh+650Nfdn+0/IsJDf4PA2TndV8V/ZDR0zNedV+dZrNBHhCn7kw9r74JgzpU40ndx9OmbVnThr/liBdtrRyqAyWXFScRNYUyuFdUx5lLf/J2/wcX2CICKx8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="ddd,MMM dd,yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="ddd,MMM dd,yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7D3CF8-410C-42EF-9807-23AFEFA0338B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_21.xlsx
+++ b/Testdata/TC_21.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Kx8AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCoe5ByRaF9QV8SSFKSoJIV1a+FMu7pbTV8Y653ZPEbynQIkWaoigKp0if6KcUBeoabQKkdh//S2DJ7qf+C5193IukYp1qC9DtzPxmZ2dnZ2ZX6N2rWWBckJjRKHxUszesmkFCL/JpePqolvBp3X5Qe9dFvSuPBIc4xjPCQdgAVMh2rhh9VDvjfL5jmpeXlxuXjY0oPjUdy7LNJ8PByDsjM1ynIeM49EgtQ/lvR9Vc1PFnQ8KxjzlWyEe1/qi/0SHU6wJtiEN8SuKNdsJoSBjrhZxySphAxgRz0ukOv6sW5jobDzZsZK7Qc8l2QgNfyZUkFV3LwbRkTGfEdSzHqlvbdWdzbDs74qe5YTea76fATBANMOMjEl9QTxJGHM/mEm5tO5u2A/+byFwrBLpyB7joIPCPyAVlxO+QIGCVPGLqDWx5HFZdzZkWMgtYrej+JuzFeH42pjwgVeG7UUw8cNS95t4nlwex9t94PgDu+IzGfNHFi8q6HjMSH8yFN6pBXdSNQt4KSMwfz2FTiQ97DgyXxwlB5i3MHNSlzINvGibEd6c4YEVQiYmOo/iczbFH9uHAmkLHZRhE2IfI4pRx6uWTrjDQYRzNQSNM3o4Cfxe0auE1jExzPwQXi2nbUXSeW7eOiWQMyGiAPZ1hnoqv0NHoLLo8CIPFKJkwL6YT4nfbqfRaHhInT6M7CePRDKzISUjRChTf998ZDocG/FrAPzh0yxKoSzw6w8FhAP5kbgMUlgiolfBoSnknCpJZyFLzlqjoGBY3JlfZYrMxOoB9DoX/o7AfpvLK42tZZcBRdJnNucqQ/iiQW8xLd36VsSzcBVq6k6scuTlilbs0gJpQ3JYCtRwgozNC+NroUBwk0t+uqDJue7GfzCZw0iZw3C7krAyZOR9ByELYg12uBZWjLn/GlrUjf8COjI16oX+7XMpEMF1hLtcG3hIJwZqCdoDDc6AeU36230rXsoaDlAdulV/lITjE8wAvJDnzUpGG+qEXJD5RuaEfTmWICtvUpt7KRiukARx3F+FwMV7MIRczusPh41ENqvMO4zHU/5rrRUnI44VIIsjUom/DsGQSyglwcGfMNCYfJNB2LHaT0OtE/t1n85V3HoeU393CKIlVZrw7RHpPJMmEdYlINzL/3xnvVVkTiyuJz0Iyi0Lq3d3b4GRhvX+PhbD0VN0ZQdT5urN8ACVeVUBx1u8Mi6FnhJpXaZoWY5FHZbDq4+EX8OYtR6ZLpjgJoF/jUG1Ps9y7TEYtdr4sUyShx3GQZkBXdMMM2mHPn2140EeIlm/Di2aCYEIXejxCZlFeNEMe6YWnAxyeJtBuZHllmZ7lX1EqxzEOmVhO1l0speL1QijNU6rrcVXyOkhkIKjkFQEXmUtyaExm8yjGwRAcQ3d12OnWCbqSIeZnegS1LSBe6mQzh2aosmWp4W8Tk0VKLUMceJ0ml4hSSKxFNd65TE5DYpVDOJZBBwd0EqusmpbydTzYsLxPTPOvWFzFnjHdA7h8QfX9DlmIjjwfaLoMWTtlqAAWidQdHW1uO1tWw4HORoyRXPERwYHRg8PMidEPLwjjM4DtGEeEUR++KA52jPfIhFAogtJFugxVRhdxaDfN89KUFthbppQFoN84pVBGVgUzTg5wTwiOg0VBUC11EHkgd/Pjf1//5vmrF5/ffPz0zZc//O8/fvXqnz+7fvYj+Lj569+uP/mlWqYSRmM8CYg0aNze3rYamxBnGQkJ55qyS/YTj0vayYlsjrMx0pc5Oej0+p29QVvmk4yYwlVJMcU9cREl+XCkFiEnkltqppGgRNxxmp/0uMQtlChX3NsuSFm6yL8NqHzx+uXnr1/++Va0dljea9nN5lbddt7aijmWba/IZa3YoFQDhPBm3dqqO05BeEkGHakCkPmp77sN22paTsOys1zuZ4G8TmiZpTWN8am5hFOkjmqPshAojlOmDPwxHJGMrY5CYaBD9MufvPnL05KU9q6mlLWAcbKNEZOZ6UCq3j8aG6ODx0ednjHujUSc5LyCnFL+DcJ69uw8lYIqDBMcvGNAcYdiZtTgRlQzoqlBsHdmLOAkFs5hKdjWUdVE91S5bOVeHCVztSMFQE5dI5llk7WINblG8qQ/V5JOzlojrmy9/vsX6wB6Id28oXWPhm1jFmZxKWmoxFGkAl+f2s/+9eqrj169eHHz/OfXX/2gpEHPk70QQJzDaSoOs7CHlKfrzRIFHY+kM8+t7xXqiyaKi9RhREPOXPuBvEPpEQKoLbTJ36g/g5InFUt/AX2Jgt7DrHfF9cF295FZJoCdcwzVNsrvnhlB5fDcr//57e9ufv3FzafP33z0p+uP/3j9yaevX/7+zbM/qFN38/T5zU+f6Sy/XAikLeJGq5pAQz6VeIY4jYao3cbXH/7CCCNuQMthJDIjff3hZwVlwlDZnOSaoaXLDCmbsCJaBAucUTAls6GEyyCqAeiIEtbIJHQRi+bUyyd5vy5UiXMnGd/qj+sJI0YE3dS3YSVl4Rx8V5yGqJJ6+NBybEdzlTViCRPMCq7fC6IJNBkpQz5ALImUUN8MyGXlfHuDg3ZrkIsoIw5in8QiDNUH6rO0qUzDq0ABLjR7XhKId6IVsVUWSr8KqcvUDy7Tli9S3vrniZIE6iRxrJqgUL/Zj5I5NMDpC93tfPlqWeh591V/WuyC83G/W+bDuMCF4ldmC4Lky3SkWSo19Zl421Et7L5wTT4EXumlE9yhn+VVd3UBvWRsilzTi+MoXptwck4qNoTuGbKImXs8kzHFlKrT9vO9Sglpkss+1G1PrzDqkoDwym/WKXoYXdwbC3tfFdpnB4GvnVntupG5JVdQfLgXgVLVmFYcQ9sknvcqv7QPaHjer7Z618ab9kPs2diekubWpPnAhnxDPPxw+6HlOVCQlFJx+xQqxM1F3N0qToLMMjy/Zx/BzbuiNuVgCRR3UfCUPJA6sWdjtEtjxp+IFKW/FOUko5yo1vmJsE99yPGJ29hSBBAwi5OZJavT/MLV33iiYEBntOJ91UqTUFkJhMF8rnrLqhsKNW+fXEHnW9AA2Xryfahn6oGnijZ1qiDJZ/hU1yiZVFZnpuBD4IvAuh+650Nfdn+0/IsJDf4PA2TndV8V/ZDR0zNedV+dZrNBHhCn7kw9r74JgzpU40ndx9OmbVnThr/liBdtrRyqAyWXFScRNYUyuFdUx5lLf/J2/wcX2CICKx8AAA==</t>
+          <t>Mh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyN0lJVsWRhvwJoUoKQokVVl5KYa7I3Hq5S6zMyuJbynQIkWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUrFUNwdo55zszZ86c24zQu1dz37ggEaNhsFexa1bFIIEbejQ436vE/KxqP6i866DulUv8IxzhOeEANkAqYLtXjO5VZpwvdk3z8vKydtmohdG5Wbcs23w86I/dGZnjKg0Yx4FLKqmU93apioPa3nxAOPYwx0pyr9Ib92ptQt0O0AY4wOckqrViRgPCWDfglFPChGREMCftzuC7amNOvfagZiNzjZ4hWzH1PYUrIBVd42BZMqFz4tQte6dq7VQb1sS2d7e3dhs7tYdb1vuJYApEfcz4mEQX1JWEMcfzhRS3dhqWbW9vNXaQuREEc2UGcNDQ90bkgjLitYnvs1IWMfUBNl0Ouy5nTAuZOVk90f1VOIjwYjah3Cfl1BgNWsY80LpkkzhoP4yIC/a7l0qH5HIYabNOFn3gTmY04ssOXpae65iRaLgQRion6qBOGPCmTyJ+vICzJh64AjAcHsUEmbcwM6EOZS580yAmnnOGfZYXKjDRSRg9YQvskkOIY1PMcRn4IfbA4ThlnLrZomsMdBSFC5gRFm+FvrcPs2rwBkY6cy8AE4tlW2H4JNNuExPJU5XnC2c6xzyBr9HReBZeDgN/OY6nzI3olHidVoLeyEMiILV0O2Y8nIMWGQkpWo7ied47g8HAgF9L+AexuIpAHeLSOfaPfLAncxowYYGAmjEPzyhvh348D1ii3goVncDmJuQq3Ww6RkM450DYPwx6QYJXFt/IKgqMwst0zXWGtEeO3GRucvLrjFVwB2jJSa5z5OGIXe5TH0pF/lhy1KKDjGeE8I3eoThIZMV9UXyc1vIwnk8h0qYQbhdyVYbMjI/AZcHtQS/HgoJSlT8Ty9qVP6BHykbdwLsdlzARLJdby7GBt0JCsCe/5ePgCVBPKJ8dNpO9bOAgZYFb8es8BEG88PFSklMr5WmoF7h+7BGVG3rBmXRRoZs61FvZaI3Uh3B3EA6Wk+UCUjSjuxw+9ipQtHcZj6AtqDhuGAc8WookgkwNfZsMi6eBXAD7d5Y5i8gHMXQjy/04cNuhd/fVPGWd44Dyu2sYxpHKjHcXkdYTSTJmHSLSjcz/d5Z3y+yJRaXg84DMw4C6d7c2GFlo791jIyyJqjtLEBVfd8b7UOJVBRSxfmexCFpJqHmllmkyFrpUOqsODy8nb94SMh1yhmMf2jgO1fY8zb2rZNRkT1YxeRI6jvwkAzqiSWbQJbvevOZCHyE6wZobzgXBhOb0ZIzMPF40Qy7pBud9HJzH0G6keWWVnuZfUSonEQ6Y2E7aXayk4s0glOQp1fU4KnkNY+kIKnmFwEXmCg5NyHwRRtgfgGHovnY73TpBVzLAfKZHUNt84iZGNjPRVKqoWaL422CySKltiIDXaXKFKEFiL6ofzzAZDYldDiAs/Tb26TRSWTUp5Zt4cGBZn5jkX7G5kj1jcgZwJ4Pq+x2yFI16NtB06bJ2wlAOLBKpMx5t7dS3rUYdOhsxRnLHI4J9owvBzInRCy4I43MQ2zVGhFEPvij2d433yJRQKILSRLoMlZbOy6H9JM9LVZqgb5FSBEC/cU6hjKwDU04m4JwSHPnLHFBttR+6gLv58b+vf/P81YvPbz5++ubLH/73H7969c+fXT/7EXzc/PVv15/8Um1TgdEET30iFZq0dnasxhb4WUpCwrim7JK92OWSdnoqm+N0jPQdTw7a3V77oN+S+SQlJuKqpJji+rgM42w4VpuQC8kjNRNPUBBnkuQnPS5wcyXKEde5C1JE5/m3CSpbvH75+euXf75VWhss67XsR4+2q3b9ra0YXIztNVzaivULNUCAt6rWdrVez4FXMGikCkBqp57nNGzrkVWH23eay73UkTeBVll6pgk+N1fkFKmt2qPUBfLjhCkdfwIhkrJVKOQG2kW//MmbvzwtoLR1NaU4Cygn2xixmJkM5NSHo4kxHh6P2l1j0h0LP8l4OZya/BvAevU0ngpOFQQx9t8xoLhDMTMqcCOqGOGZQbA7M5YQibk4LDjbJqpa6J5Trmp5EIXxQp1ITiCjbkCm2WSjxIZcI3nSnmtJJ2NtgCtdr//+xSYBvZFO1tCmTyF5GipwFCnH11H72b9effXRqxcvbp7//PqrHxRm0OukLwTg5xBN+WHq9pDydL1ZoaCTsTTmE+t7ufqiieIidRTSgDPHfiDvUHqEQNQWs8nfqDeHkicnlvYC+goFvYdZ94rrwHYOkVkkgJ4LDNU2zO6eKUHl8Myu//nt725+/cXNp8/ffPSn64//eP3Jp69f/v7Nsz+oqLt5+vzmp890ll8tBFIXcaNVTaAhn0pcQ0SjIWq38fWHvzCCkBvQchixzEhff/hZbjKhqGxOspmhpUsVKaqwBs0LCzkjp0qqQ0EuFVENQFuUsEaK0EUsXFA3W+T9qphKxJ1kfKs3qcaMGCF0U9+GnRTBmfBd5bSIKqlHD626XddcpY3YwhSznOkP/HAKTUbCkA8QK5CC1DcLZFi53kF/2Gr2M4hSYhh5JBJuqD5Q0lKKktJjyShxtRwFuND4ubEv3ozWYOusdOZcGjP148tZ0xPpb/NTRQGB2nEUqYYo0M/643gBzXDyWnc7X75g5vrfQ9Wr5jvibNzrFPkwznGhEBbZgiD5MjVplkpTPSbeeVQ7eyhMkw2BV3j1BHPol3vVaV1AXxmZIu90oyiMNiafjJPABtBJQ0YxM4unGHmmquv2srNKCEnCSz/UzU/vMOwQn/Byz9pmJj0IL+4tC2dfVrTHhr6njVnu6pGaJZsg/7YvHOX/fdpXztaMImisxANg6bf45OI6gvtuSW3UVqSguAHC6vqxfJ9GjD8WmUB/KcppSjlVHepjceFSH3J86jS2FQEAZn52s6BmErpc/YUl9Pt0TkteC60kvouTgC0XC9XC9cp5iigth+QKGszcDJAUp9+HsqHeUcrMphwWcmkqL94uGT2f8bKKPZxi4pGpVXWnpF7d8qyd6iNCGlXbhv+xW69b1rZ4+dSTQ+ag5LLkImZyYNlfPp3/ASPMfXEyHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="ddd,MMM dd,yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="ddd,MMM dd,yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7D3CF8-410C-42EF-9807-23AFEFA0338B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>